--- a/weightedKappa.xlsx
+++ b/weightedKappa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaciez1/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccaciez1/Documents/GitHub/expertEnergyJudgment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036A7DE2-9E66-6946-B360-E4AD0B018BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421621CA-CA27-0948-87ED-067A9F720AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{2FEFE1C2-4922-5A4E-978C-34E7996D405E}"/>
+    <workbookView xWindow="40760" yWindow="1980" windowWidth="28800" windowHeight="15980" xr2:uid="{2FEFE1C2-4922-5A4E-978C-34E7996D405E}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E39981-6C60-0649-8E1E-C82FED55325F}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1381,6 +1381,12 @@
       <c r="R27" s="3">
         <f>(R4*E7+R11*E14+R17*E20+R23*E26)/(E7+E14+E20+E26)</f>
         <v>0.22152910009268512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f>SUM(K7,K14,K20,K26)</f>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
